--- a/biology/Botanique/Cordia_subcordata/Cordia_subcordata.xlsx
+++ b/biology/Botanique/Cordia_subcordata/Cordia_subcordata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cordia subcordata ou noyer d'océanie ou faux-ébène, appelé tou à Tahiti, est une espèce de plante du genre Cordia de la famille des Boraginaceae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cordia subcordata ou noyer d'océanie ou faux-ébène, appelé tou à Tahiti, est une espèce de plante du genre Cordia de la famille des Boraginaceae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un arbre trapu pouvant dépasser les quinze mètres de haut et un mètre de diamètre. Il est en fleurs (inflorescence de cinq à vingt fleurs orange en forme d'entonnoir plus ou moins plissées) et en fruits toute l’année, son écorce est gris beige, les feuilles sont simples, alternes, ovales de 7 à 30 cm de long. Les fruits verts lorsque jeunes à brun-noir à maturité, ont la forme d’une drupe de 2 cm. Les fruits, flottants, sont disséminés par les courants marins[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un arbre trapu pouvant dépasser les quinze mètres de haut et un mètre de diamètre. Il est en fleurs (inflorescence de cinq à vingt fleurs orange en forme d'entonnoir plus ou moins plissées) et en fruits toute l’année, son écorce est gris beige, les feuilles sont simples, alternes, ovales de 7 à 30 cm de long. Les fruits verts lorsque jeunes à brun-noir à maturité, ont la forme d’une drupe de 2 cm. Les fruits, flottants, sont disséminés par les courants marins.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son habitat naturel est en Afrique Australe, Afrique de l'Est, dans l'océan Indien (notamment archipel des Comores, Madagascar), dans l'océan Pacifique (notamment Polynésie française), Nouvelle-Calédonie[1]).
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son habitat naturel est en Afrique Australe, Afrique de l'Est, dans l'océan Indien (notamment archipel des Comores, Madagascar), dans l'océan Pacifique (notamment Polynésie française), Nouvelle-Calédonie).
 </t>
         </is>
       </c>
@@ -573,10 +589,12 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On les appelle tou en Polynésie française. Ils ont été plantés massivement aux Tuamotu de l'Est en 1906, à la suite du passage de cyclones qui ont ravagé les villages[3]. Les habitants y ont pris l'habitude de se rencontrer sous leurs feuillages[2].
-Ils sont utilisés en ébénisterie, pour concevoir des tambours (pahu), récipients (koka), statuettes tiki, notamment aux îles Marquises, chevalets de râpe à coco, et des meubles[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On les appelle tou en Polynésie française. Ils ont été plantés massivement aux Tuamotu de l'Est en 1906, à la suite du passage de cyclones qui ont ravagé les villages. Les habitants y ont pris l'habitude de se rencontrer sous leurs feuillages.
+Ils sont utilisés en ébénisterie, pour concevoir des tambours (pahu), récipients (koka), statuettes tiki, notamment aux îles Marquises, chevalets de râpe à coco, et des meubles.
 </t>
         </is>
       </c>
